--- a/results/150514-X10-1506-2015-German_Championships_(Open)-Mixed.xlsx
+++ b/results/150514-X10-1506-2015-German_Championships_(Open)-Mixed.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kolja\Desktop\1506 - Rankings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FpaExcelResultsParser\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06F0D91-A1CF-4654-A8E9-6DD2CA8556FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13305" windowHeight="11055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13305" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="X09" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">'X09'!#REF!</definedName>
-    <definedName name="Print_Area" localSheetId="0">'X09'!$A$1:$O$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'X09'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'X09'!$A$1:$O$39</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,14 +29,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>HannemanK001</author>
     <author>Kolja Hannemann</author>
     <author>Kolja</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -117,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -130,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L8" authorId="0" shapeId="0">
+    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0" shapeId="0">
+    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -172,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -202,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="1" shapeId="0">
+    <comment ref="E16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -230,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="2" shapeId="0">
+    <comment ref="F16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -253,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="2" shapeId="0">
+    <comment ref="G16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -276,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="2" shapeId="0">
+    <comment ref="H16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -290,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="2" shapeId="0">
+    <comment ref="J16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -303,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L16" authorId="2" shapeId="0">
+    <comment ref="L16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -317,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M16" authorId="2" shapeId="0">
+    <comment ref="M16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -331,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P17" authorId="2" shapeId="0">
+    <comment ref="P17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -345,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q17" authorId="2" shapeId="0">
+    <comment ref="Q17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -359,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R17" authorId="2" shapeId="0">
+    <comment ref="R17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -533,9 +534,6 @@
     <t>Place:</t>
   </si>
   <si>
-    <t>14.-17.05.2015</t>
-  </si>
-  <si>
     <t>Date:</t>
   </si>
   <si>
@@ -555,12 +553,15 @@
   </si>
   <si>
     <t>Event:</t>
+  </si>
+  <si>
+    <t>14.05.2015-17.05.2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1711,146 +1712,146 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2135,45 +2136,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+      <selection activeCell="I4" sqref="I4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="10.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="3.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.3984375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="3.3984375" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="36.59765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.265625" style="1" customWidth="1"/>
     <col min="9" max="9" width="1" style="1" customWidth="1"/>
-    <col min="10" max="13" width="7.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.140625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="1.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="7.265625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.1328125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="1.265625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.73046875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.3984375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.86328125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.59765625" style="4" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="17" style="3" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="23" max="24" width="11.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="26" max="16384" width="11.5703125" style="1"/>
+    <col min="21" max="21" width="16.3984375" style="3" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="11.59765625" style="3" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="11.59765625" style="2" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="11.59765625" style="1" hidden="1" customWidth="1"/>
+    <col min="26" max="16384" width="11.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="10.9" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="93" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="92"/>
       <c r="D2" s="92"/>
@@ -2181,19 +2182,19 @@
       <c r="F2" s="92"/>
       <c r="G2" s="92"/>
       <c r="H2" s="92"/>
-      <c r="I2" s="101" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
+      <c r="I2" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="120"/>
       <c r="N2" s="1"/>
       <c r="T2" s="83"/>
     </row>
-    <row r="3" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="86"/>
       <c r="D3" s="86"/>
@@ -2201,24 +2202,24 @@
       <c r="F3" s="86"/>
       <c r="G3" s="86"/>
       <c r="H3" s="86"/>
-      <c r="I3" s="100" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="105"/>
+      <c r="I3" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="122"/>
       <c r="N3" s="1"/>
       <c r="T3" s="83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="89" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="88"/>
       <c r="D4" s="88"/>
@@ -2226,13 +2227,13 @@
       <c r="F4" s="88"/>
       <c r="G4" s="88"/>
       <c r="H4" s="88"/>
-      <c r="I4" s="106" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="99"/>
+      <c r="I4" s="123" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="124"/>
       <c r="N4" s="1"/>
       <c r="T4" s="83">
         <v>0</v>
@@ -2241,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="87" t="s">
         <v>50</v>
       </c>
@@ -2251,17 +2252,17 @@
       <c r="F5" s="86"/>
       <c r="G5" s="86"/>
       <c r="H5" s="86"/>
-      <c r="I5" s="100" t="s">
+      <c r="I5" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="96"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="109"/>
       <c r="N5" s="1"/>
       <c r="T5" s="83"/>
     </row>
-    <row r="6" spans="1:24" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="89" t="s">
         <v>48</v>
       </c>
@@ -2271,13 +2272,13 @@
       <c r="F6" s="88"/>
       <c r="G6" s="88"/>
       <c r="H6" s="88"/>
-      <c r="I6" s="107">
+      <c r="I6" s="125">
         <v>14</v>
       </c>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="109"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="127"/>
       <c r="N6" s="1"/>
       <c r="T6" s="83" t="s">
         <v>47</v>
@@ -2289,7 +2290,7 @@
       <c r="W6" s="90"/>
       <c r="X6" s="90"/>
     </row>
-    <row r="7" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="87" t="s">
         <v>46</v>
       </c>
@@ -2299,13 +2300,13 @@
       <c r="F7" s="86"/>
       <c r="G7" s="86"/>
       <c r="H7" s="86"/>
-      <c r="I7" s="94">
-        <v>1</v>
-      </c>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="96"/>
+      <c r="I7" s="128">
+        <v>1</v>
+      </c>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="109"/>
       <c r="N7" s="1"/>
       <c r="T7" s="83" t="s">
         <v>45</v>
@@ -2314,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="89" t="s">
         <v>44</v>
       </c>
@@ -2324,21 +2325,21 @@
       <c r="F8" s="88"/>
       <c r="G8" s="88"/>
       <c r="H8" s="88"/>
-      <c r="I8" s="97" t="s">
+      <c r="I8" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98" t="s">
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="99"/>
+      <c r="M8" s="124"/>
       <c r="N8" s="1"/>
       <c r="T8" s="83" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="87" t="s">
         <v>40</v>
       </c>
@@ -2348,19 +2349,19 @@
       <c r="F9" s="86"/>
       <c r="G9" s="86"/>
       <c r="H9" s="86"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95" t="s">
+      <c r="I9" s="107"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="96"/>
+      <c r="M9" s="109"/>
       <c r="N9" s="1"/>
       <c r="T9" s="83" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="89" t="s">
         <v>38</v>
       </c>
@@ -2370,15 +2371,15 @@
       <c r="F10" s="88"/>
       <c r="G10" s="88"/>
       <c r="H10" s="88"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="111"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="106"/>
       <c r="N10" s="1"/>
       <c r="T10" s="83"/>
     </row>
-    <row r="11" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="87" t="s">
         <v>37</v>
       </c>
@@ -2388,17 +2389,17 @@
       <c r="F11" s="86"/>
       <c r="G11" s="86"/>
       <c r="H11" s="86"/>
-      <c r="I11" s="100">
+      <c r="I11" s="107">
         <v>1506</v>
       </c>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="96"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="109"/>
       <c r="N11" s="1"/>
       <c r="T11" s="83"/>
     </row>
-    <row r="12" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="85" t="s">
         <v>36</v>
       </c>
@@ -2408,38 +2409,38 @@
       <c r="F12" s="84"/>
       <c r="G12" s="84"/>
       <c r="H12" s="84"/>
-      <c r="I12" s="112">
+      <c r="I12" s="110">
         <v>1706</v>
       </c>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="114"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="112"/>
       <c r="N12" s="1"/>
       <c r="T12" s="83"/>
     </row>
-    <row r="13" spans="1:24" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="119"/>
+    <row r="13" spans="1:24" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="117"/>
       <c r="N13" s="1"/>
       <c r="T13" s="83"/>
     </row>
-    <row r="14" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="10.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="P14" s="82"/>
       <c r="Q14" s="82"/>
       <c r="R14" s="82"/>
     </row>
-    <row r="15" spans="1:24" s="71" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" s="71" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="81" t="s">
         <v>35</v>
       </c>
@@ -2457,9 +2458,9 @@
       <c r="L15" s="76"/>
       <c r="M15" s="75"/>
       <c r="N15" s="74"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="124"/>
-      <c r="R15" s="125"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="99"/>
       <c r="S15" s="4">
         <v>7</v>
       </c>
@@ -2469,7 +2470,7 @@
       <c r="W15" s="72"/>
       <c r="X15" s="72"/>
     </row>
-    <row r="16" spans="1:24" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="61"/>
       <c r="B16" s="70" t="s">
         <v>34</v>
@@ -2502,11 +2503,11 @@
         <v>27</v>
       </c>
       <c r="N16" s="1"/>
-      <c r="P16" s="126" t="s">
+      <c r="P16" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="128"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="102"/>
       <c r="T16" s="62" t="s">
         <v>25</v>
       </c>
@@ -2514,7 +2515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="61"/>
       <c r="B17" s="60"/>
       <c r="C17" s="59"/>
@@ -2546,9 +2547,9 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
-      <c r="B18" s="120">
+      <c r="B18" s="94">
         <v>1</v>
       </c>
       <c r="C18" s="47">
@@ -2605,9 +2606,9 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="121"/>
+      <c r="B19" s="95"/>
       <c r="C19" s="38">
         <v>1</v>
       </c>
@@ -2662,9 +2663,9 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="122"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="26">
         <v>1</v>
       </c>
@@ -2717,9 +2718,9 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
-      <c r="B21" s="120">
+      <c r="B21" s="94">
         <v>2</v>
       </c>
       <c r="C21" s="47">
@@ -2776,9 +2777,9 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
-      <c r="B22" s="121"/>
+      <c r="B22" s="95"/>
       <c r="C22" s="38">
         <v>2</v>
       </c>
@@ -2833,9 +2834,9 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="122"/>
+      <c r="B23" s="96"/>
       <c r="C23" s="26">
         <v>2</v>
       </c>
@@ -2888,9 +2889,9 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
-      <c r="B24" s="120">
+      <c r="B24" s="94">
         <v>3</v>
       </c>
       <c r="C24" s="47">
@@ -2947,9 +2948,9 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
-      <c r="B25" s="121"/>
+      <c r="B25" s="95"/>
       <c r="C25" s="38">
         <v>3</v>
       </c>
@@ -3004,9 +3005,9 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="122"/>
+      <c r="B26" s="96"/>
       <c r="C26" s="26">
         <v>3</v>
       </c>
@@ -3059,9 +3060,9 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
-      <c r="B27" s="120">
+      <c r="B27" s="94">
         <v>4</v>
       </c>
       <c r="C27" s="47">
@@ -3118,9 +3119,9 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
-      <c r="B28" s="121"/>
+      <c r="B28" s="95"/>
       <c r="C28" s="38">
         <v>4</v>
       </c>
@@ -3175,9 +3176,9 @@
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
     </row>
-    <row r="29" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="122"/>
+      <c r="B29" s="96"/>
       <c r="C29" s="26">
         <v>4</v>
       </c>
@@ -3230,9 +3231,9 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
     </row>
-    <row r="30" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
-      <c r="B30" s="120">
+      <c r="B30" s="94">
         <v>5</v>
       </c>
       <c r="C30" s="47">
@@ -3289,9 +3290,9 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
     </row>
-    <row r="31" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
-      <c r="B31" s="121"/>
+      <c r="B31" s="95"/>
       <c r="C31" s="38">
         <v>5</v>
       </c>
@@ -3346,9 +3347,9 @@
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
     </row>
-    <row r="32" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="122"/>
+      <c r="B32" s="96"/>
       <c r="C32" s="26">
         <v>5</v>
       </c>
@@ -3401,9 +3402,9 @@
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
     </row>
-    <row r="33" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
-      <c r="B33" s="120">
+      <c r="B33" s="94">
         <v>6</v>
       </c>
       <c r="C33" s="47">
@@ -3460,9 +3461,9 @@
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
     </row>
-    <row r="34" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
-      <c r="B34" s="121"/>
+      <c r="B34" s="95"/>
       <c r="C34" s="38">
         <v>6</v>
       </c>
@@ -3517,9 +3518,9 @@
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
     </row>
-    <row r="35" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="122"/>
+      <c r="B35" s="96"/>
       <c r="C35" s="26">
         <v>6</v>
       </c>
@@ -3572,9 +3573,9 @@
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
     </row>
-    <row r="36" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
-      <c r="B36" s="120">
+      <c r="B36" s="94">
         <v>7</v>
       </c>
       <c r="C36" s="47">
@@ -3631,9 +3632,9 @@
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
-      <c r="B37" s="121"/>
+      <c r="B37" s="95"/>
       <c r="C37" s="38">
         <v>7</v>
       </c>
@@ -3688,9 +3689,9 @@
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="122"/>
+      <c r="B38" s="96"/>
       <c r="C38" s="26">
         <v>7</v>
       </c>
@@ -3743,7 +3744,7 @@
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
     </row>
-    <row r="39" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -3768,6 +3769,22 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:M13"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B35"/>
@@ -3777,22 +3794,6 @@
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:M9"/>
   </mergeCells>
   <conditionalFormatting sqref="P18:R38">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -3800,31 +3801,31 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H15">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Pools</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="F15">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="F15" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Rounds</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="New Player or Error" error="This Player is not in the Rankings or you just made an typing error. Please correct your error, or add the player to the rankings list!" sqref="E18:E38">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="New Player or Error" error="This Player is not in the Rankings or you just made an typing error. Please correct your error, or add the player to the rankings list!" sqref="E18:E38" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>players_sorted2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>All_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I15" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>Pools</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:M10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:M10" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>Other_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:M9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:M9" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>Women_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:M8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:M8" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>Open_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="I7:M7">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="I7:M7" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>Categories</formula1>
     </dataValidation>
   </dataValidations>
